--- a/500all/speech_level/speeches_CHRG-114hhrg94942.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94942.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400606</t>
   </si>
   <si>
-    <t>Matt Salmon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Salmon. The subcommittee will come to order. Given the timing of votes this afternoon, we are expected to go back in for votes again pretty soon, I am going to keep my remarks very short and submit my entire statement for the record.    Supporting human rights and democracy has long been a central component of U.S. foreign policy. Promotion of democratic values facilitates security, stability, and economic prosperity throughout Asia and the world. This year the Asia-Pacific region is entering a critical period for democracy with a number of elections, government transitions, and internal developments planned in numerous countries.    As the United States continually refines its efforts to ensure peaceful, transparent transitions of power and adherence to international law and norms, we must also ensure that our efforts are practical and leave meaningful results among Asian democracies, that our efforts leave them very robust. Our hearing will provide oversight on our Government's activities to support democracy abroad and ensure that while our focus is on military and economic rebalance, that we are not going to overlook the importance of democracy and human rights.    Today we are going to pay special attention to Hong Kong, Burma, Thailand, and Cambodia, and the rest of my remarks I am just going to submit for the record. We have got such a short amount of time, I really want to hear from the witnesses.    Mr. Sherman, I am going to yield to you.</t>
   </si>
   <si>
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you. Thank you for holding these hearings.    For the most part, our Government programs aren't designed to focus on democracy in China, but the thing that I think will be even more important to bringing democracy to China is if we are able to expose to the Chinese people the incredible levels of corruption in their own regime. We have the capacity to ferret out proof of their top government officials and mid-level government officials with enormous assets both in and out of China. And I don't think there is much that would do more to bring democracy to China than exposing this level of corruption.    We are in a stronger position to push for democracy in other countries. In Burma, we face two issues: One, getting the military or military-flavored regime to agree to democracy; and, second, trying to get both the democracy advocates that we have sheltered and supported for so long, and the military regime to understand the importance of minority rights. I am especially disappointed that Aung Suu Kyi and others who we have supported so fervently have not spoken out and acted to protect the rights and the physical existence of the Rohingya.    In Thailand, we need to support democracy even if there are, I don't know, more yellow shirts than red shirts or more red shirts than yellow shirts and even if the more numerous shirts may represent a policy that we regard as a little too redistributionist or adopting economic policies inconsistent with majority economic thought here in the United States.    I look forward to learning what we can do to bring both development and democracy to Cambodia. And as to Hong Kong, the Chinese Government is obviously doing less than promised, and we need to expose and pressure that. At the same time, the people of Hong Kong do enjoy something closer to democracy than the rest of the PRC. And I think that the example of Hong Kong is one that the rest of China may choose to emulate.    I, like the chairman, want to keep my opening remarks short, and this is the first time I have concluded them in only 3 minutes.    I yield back.</t>
   </si>
   <si>
@@ -73,27 +67,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Malinowski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Malinowski. Thank you so much Chairman Salmon. Very good to see you again.    And, Mr. Sherman, who is also a member of the DRL human rights family, thank you so much for inviting us.    Let me start with some general impressions. Promoting human rights and democracy in Asia is something we do because it is the right thing to do. It also advances our strategic interests. It helps to build more stable societies. It advances our economic goals in a number of ways.    Perhaps most important from my point of view it aligns the United States with the aspirations of everyday people across this region with--it aligns us with the values that they admire. We sometimes get into arguments with governments on these issues, but we are fundamentally in agreement with the people of China, with the people of Vietnam, with the people of Burma about the basic human aspiration to be treated with dignity and fairness and with full respect for rights. And that agreement is a strategic advantage for the United States we need to preserve.    By the same token, the flip side of that is that our strategic presence in Asia, our alliances, our trade agreements, our ability to provide security and reassurance also enables us to promote democracy and human rights more effectively. To advance our values we need to be the great power that is shaping the agenda, and that our allies look to as their most reliable partner because there are alternative visions out there. There are alternative agenda setters out there. So, to be effective, we have to be present and principled at the same time.    With that in mind, you have asked us to address a few specific situations. I am going to say a few words about Burma. I am going to throw in a little bit about Vietnam where you and I met recently, and my colleague, Deputy Assistant Secretary Marciel, will cover some of the other countries that you asked us to focus on.    So, first, Burma, which is, it is first of all a country that has come a long way from the absolute military dictatorship that it was just a few years ago but is not yet where we need it and want it to be. It is undergoing an evolution, not a revolution. Everything is being negotiated. It is still operating under the old military constitution. There is still armed conflict, religious tension, the tragic situation of the Rohingya minority.    Our policy has been to support a democratic transition but with realism about how far Burma has to go and caution about not moving too fast ourselves. So we have eased sanctions. We haven't fully lifted them. We have encouraged U.S. investment but not with military industries. We have welcomed the progress we have seen, but we have also continued to speak out about the problems.    This is a very important year. There will be elections in Burma later this year, the first nationwide competitive elections there in a very long time. Those elections will have inherent flaws because of the system in place. They do, if they reflect credibly the will of Burmese people, they do offer a chance to take a step forward.    If the democratic forces do well, for example, they will form the next government. They will select the next President. They will have the leverage to press for the next stage of reform. So we are going to support the elections as best as we can. But we will be looking not just at the credibility of that process but at the credibility of the democratic transition that we hope will follow, including, we hope, changes to the constitution that empower civilians over the military and that give Burmese people the right to choose the President they want.    And we are also going to continue to press to right the wrongs being committed against the Rohingya minority, which President Obama, when he was in Rangoon recently, called Burma's most urgent matter.    Now, let me say also just a few words about Vietnam, and I want to talk about this in the context of the choice that Members are going to have to make very shortly on TPA and eventually on TPP because that choice is going to have a huge impact on what we are going to do going forward.    And I recognize that it is not an easy choice for many Members, especially those who are concerned about human rights and labor rights in Vietnam.    We see exactly what you see in that country. It is still a one-party state. It is still a country in which people are persecuted for political opinions. And it is, again, a country that is not where we yet want it or need it to be.    But going back to the point I made at the outset, we have to be present, and we have to be principled. I think the TPP meets both of those tests. First of all, it is an example of strategic presence of the United States trying to play the leading role in shaping the norms and institutions of Asia for a generation to come. If we cede that role to others, that is not going to be good for the cause of human rights and democracy.    Second of all, it is principled because built into TPP are a set of requirements and expectations unlike in past trade agreements. Those requirements and expectations feed into a debate that is underway in Vietnam already between those who want to open up the society and those who want to keep it closed. And those who want to keep it to make it more open are using the prospect of membership in TPP as their number one argument for moving forward. And under the spotlight of that debate, there has been progress, more releases, vastly fewer convictions for political offenses, ratification of human rights treaties and the beginning of comprehensive legal reform. And most important, a requirement built into the treaty that Vietnam allow for the very first time freedom of association, the creation of independent trade unions, breaking the Communist Party's monopoly on trade union organizing, which would be a huge deal if we can get it. And those changes will have to be made in Vietnamese law before they can enjoy the benefits of TPP.    So is this enough? No, it is not, but it will be significant. It will be necessary in terms of what we are trying to achieve. And, without the prospect of TPP, it would not be happening. And TPA, which is what you all are being asked to vote for in coming days, is what keeps that prospect open and thus gives us the leverage to keep pressing for more.    I have focused on this as much as any other human rights issue in the world. And I can tell you that this is the entree. This is the reason why the Vietnamese Government is willing to listen to us on these issues. So I ask you to consider this, not as a leap of faith, but as an exercise in leverage in trying to achieve the kind of progress that we have been hoping for in Vietnam for a long time, but only now I think have a chance to achieve.    With that, I will turn the rest over to my colleague, Mr. Marciel.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Mr. Marciel.</t>
   </si>
   <si>
-    <t>Marciel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Marciel. Thank you, Chairman Salmon, Ranking Member Sherman, and members of the committee. It is a privilege to testify before you today. Promoting democracy and human rights is not something we do on the margins. It is an integral part of our daily diplomacy in Asia, particularly, of course, in countries that either are not democracies, or where democracy is fragile. My generation joining the Foreign Service and heading to Asia three decades ago, went to a region where democracy were few and, in the case of Southeast Asia, were nonexistent. Now, a majority of Southeast Asians live in democracies in places like the Philippines, Indonesia and Timor-Leste. South Korea, Taiwan, and Mongolia have democratized as well, and others have made progress along the democratic path.    In all of these places, the people of those nations deserve the credit. They are the ones who made democracy happen. But the United States strongly supported all of these democratic transitions, and we are not stopping. I will talk about what we are doing in three very different places, Cambodia, Thailand, and Hong Kong.    But, first, if I could, I would add a few words to Assistant Secretary Malinowski's review of Burma. And I just want to stress there that our engagement in Burma and with Burma is all about their efforts to achieve a successful democratic transition. That has been and remains the focus of our work at all levels.    On Cambodia, after the 2013 parliamentary election, we, and particularly our Embassy in Phnom Penh, were instrumental in helping bring the government and opposition together in direct dialogue to resolve a year-long standoff. There is still much work to do, but now the two sides sit in Parliament together. And we are supporting the Cambodian people as they work to build on these gains. We are supporting civil society. We are connecting directly with Cambodia's next generation of leaders. And we stand with the Cambodians who are pushing for a voice as new laws are drafted. This sends a reminder that democracy isn't only about free elections. It is also about citizens' ability to hold their governments accountable.    Next, Thailand, a long-time friend and treaty ally. We have stood for democracy there through a decade of political turmoil, and our message to the government since the coup just over a year ago has been clear. We are eager to see our bilateral relationship restored to its fullest potential, but this can happen only when democracy is restored.    Until then, we will hold back certain assistance that has been suspended since the coup. But we will continue, however, to operate closely with the Thai on regional and global issues, that serve U.S. interests such as health, law enforcement, trafficking, climate change, regional security. In our interactions with the Thai, we continually stress that it is important for Thailand to have an inclusive political process and to fully restore civil liberties. This is essential to the open debate the country needs to have about its political future.    My third example is Hong Kong, where we have consistently voiced our core belief that an open society that respects the rights of its citizens and fundamental freedoms is essential to Hong Kong's continued stability and prosperity. We expect the legislative council to vote this month on an electoral reform package. While Hong Kong has never selected a chief executive through universal suffrage, we continue to voice our longstanding position that the legitimacy of the chief executive and of Hong Kong's overall governance can be enhanced through a competitive election that features a meaningful choice of candidates who represent the will of the voters.    Our position is a matter of principle, so we don't take a position on any particular draft law. We leave that question to Hong Kong's legislators in consultation with the people of Hong Kong. Irrespective of the outcome of any single legislative vote, we will keep supporting Hong Kong's continued high degree of autonomy, under ``one country, two systems'' and the basic law.    We admire all that so many people in Asia have done to promote democracy and good governance. Their work is never complete, but in our everyday diplomacy, we will continue to do all we can as a friend and as a reliable partner to support efforts to build and strengthen democracy.    Finally, let me emphasize that trade and investment, especially TPP, are important, are key to supporting a U.S. economy and to our efforts to promote democracy in the region. Thank you and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you. Mr. Stivers.</t>
   </si>
   <si>
-    <t>Stivers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Stivers. Chairman Salmon, Ranking Member Sherman, distinguished members of the subcommittee, and Mr. Crowley, thank you for the opportunity to testify today on the role of USAID in strengthening democracy, human rights, and governance in Asia. The vital importance of these areas has always been close to my heart and the forefront of my nearly two decades of work as a staffer in the House of Representatives.    The House Foreign Affairs Committee has long been at the forefront on democracy and human rights issues, and some of the strongest voices on human rights in U.S. history have done their best work on this panel.    Mr. Chairman, this hearing is in furtherance of that tradition, so thank you for your leadership in holding this hearing.    Dr. Martin Luther King once said that ``The arc of the moral universe is long, but it bends toward justice.'' This is certainly true in Southeast Asia which has made significant progress over the last 30 years. There is a unique situation in each country of the region to either preserve, consolidate, or build democratic institutions.    The United States stands as a partner in helping the people in Asia live in freedom and prosperity, including in countries with significant democratic challenges such as Burma and Cambodia.    In the fight to alleviate extreme poverty, it is essential to effectively address the underlying structural problems with governance that hold back many developing countries from realizing their potential. The solutions to challenges will ultimately come from the people of the region themselves, and our best chance in promoting democratic change is to empower the reformers in these countries by helping them build resilient institutions that are transparent and accountable to the people.    The promotion of democracy, human rights, and good governance is front and center in our development assistance to the region. And efforts not necessarily branded as democracy promotion, help advance that goal as we build systems and capacity to address overwhelming development challenges, including support for health and food-security sectors.    Our development assistance engages directly with the people and helps give them a voice in determining their own livelihoods and future. For the purposes of this hearing, I will focus my remarks on the countries of Burma and Cambodia.    In Burma, this is a pivotal year. Closely calibrated with our diplomatic efforts, our assistance is intended to strengthen institutions of democracy. USAID is helping to prepare for the November elections by building the capacity of the election commission; training domestic election observers; supporting voter registration and education; and strengthening the capacity of political parties.    USAID continues to provide humanitarian assistance to vulnerable communities, including significant assistance for the Rohingya population, refugees, and displaced people along the Thailand-Burma border and other conflict areas of Burma. Over the past 2 years the U.S. Government has provided more than $109 million in humanitarian assistance to vulnerable people in Burma and the region. And we continue to provide lifesaving humanitarian assistance to internally displaced persons, refugees, asylum seekers in the areas of health, nutrition, water, sanitization, and hygiene.    An emphasis on civil society is prevalent through all of our work, from media freedoms to land policy to health and agriculture. And we are supporting organizations that are holding the government accountable to continued reform; advocating for local needs and priorities; and resisting discrimination and violence.    To date, USAID has supported over 300 vocal civil society organizations who are empowering ordinary citizens to bring change to their country.    In Cambodia, promoting democratic governance and human rights continues to be our highest priority. U.S. assistance to human rights NGOs have strengthened their skills necessary to advocate effectively for change. While not fully respected by the Cambodian Government, Cambodian civil society has grown in strength and inclusiveness. Since the 1990s, we have supported civil society, and we continue to prioritize assistance to this sector. Cambodian civil society, with USAID support, has pressed for action on key issues, such as support for human rights, by providing legal representation, trial monitoring, and advocacy support to over 1,000 jailed activists.    Our longstanding support for anti-trafficking is paying dividends with a new report finding significant decreases in trafficking of underaged girls. The reduction was achieved in large part by civil societies' sustained efforts.    In part, due to U.S. support, garment workers negotiated a 28-percent increase in minimum wage that was approved last year.    Community mobilization and legal support resulted in the government returning land to more than 700 families in Siem Reap Province, providing them with land tenure security and improved livelihood options. And advocacy resulted in a pardon and release of 10 female land activists recently who had been imprisoned for protesting their community from being evicted due to real estate development projects.    In conclusion, Mr. Chairman, democracy, human rights, and good governance are not only central to the Asia rebalance policy but to our development approach in Asia. I appreciate the opportunity to testify today. I look forward to hearing your thoughts and any questions.    [The prepared joint statement of Mr. Malinowski, Mr. Marciel, and Mr. Stivers follows:]                              ----------                              </t>
   </si>
   <si>
@@ -154,9 +139,6 @@
     <t>412560</t>
   </si>
   <si>
-    <t>Grace Meng</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Meng. Thank you, Mr. Chairman, Mr. Ranking Member.    Welcome to all of our witnesses who are testifying here today.    Assistant Administrator Stivers, thank you once again. I am losing track of how many times you have come to testify before us.</t>
   </si>
   <si>
@@ -184,9 +166,6 @@
     <t>412521</t>
   </si>
   <si>
-    <t>Alan S. Lowenthal</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lowenthal. Thank you.    Thank you, Mr. Chair, and Mr. Malinowski, I want to thank you personally for your tireless work on human rights, especially in Vietnam. I generally appreciate the open dialogue that we have had, and the work that you have done, and I went along with the chair, visiting Vietnam, and getting a chance to see you.    I want to talk about something that you mentioned in your testimony here that I think has--and, you know, the thing that we will be actually looking at and voting on very soon. And that is the--although you talk about the TPP, right now, we, as you know, we will be voting on the TPA, the promotion authority. But you say in your submitted testimony that the TPP agreement will include a requirement that Vietnam guarantee freedom of association by allowing workers to form genuinely independent trade unions.    Can you expand to us on what that cause really will look like, and how are we going to be able, the United States and others, to hold Vietnam accountable? And has there been--has Vietnam taken any steps today, before the TPP goes into effect, to actually develop independent trade, or is this something that they are saying they will do in the future?</t>
   </si>
   <si>
@@ -274,18 +253,12 @@
     <t xml:space="preserve">    Mr. Salmon. I thank the panel for coming today.    We are very fortunate to be joined by Kelley Currie, a senior fellow with the Project 2049 Institute, where she has worked on democracy, human rights, and rule of law in the Asia Pacific for over 6 years.    Murray Hiebert--did I pronounce that right, Murray?</t>
   </si>
   <si>
-    <t>Hiebert</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hiebert. Yes.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. He is a senior fellow and deputy director of the Sumitro Chair for Southeast Asian Studies, Center for Strategic and International Studies.    Peter Manikas has served as senior associate and director of Asia programs at the National Democratic Institute for the past 20 years.    And Dr. Sophie Richardson is Human Rights Watch's China director.    And Ms. Currie, we will start with you. Let me just explain the situation. We are going to probably have votes in about 10 to 15 minutes. I am going to try to get through all of your testimony. We probably won't get to questions today, which disappoints me, but maybe if we could have members submit questions to you in writing, that would be very, very helpful.    And Ms. Currie.</t>
   </si>
   <si>
-    <t>Currie</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Currie. Thank you, Mr. Chairman, Mr. Ranking Member, and members of the committee for giving me the opportunity today to speak about the state of democracy in Asia, specifically with regard to the situation in Burma.    There is no denying there have been changes in Burma over the past 5 years. When I started working on human rights and democracy in Burma 20 years ago as a young congressional staffer working on the Congressional Human Rights Caucus, I could not have imagined that I would be sitting here today, having spent time in Burma and meeting with the people I was trying to get out of jail at that time, people like Min Ko Naing and Aung San Suu Kyi and others.    Likewise, when I was running the International Republican Institute's Burma program with shoestring funding, operating out of safe houses on the Thai-Burma border, I can't imagine--I couldn't have imagined that IRI and NDI and other organizations would be operating from offices in downtown Rangoon today with the permission of the government and working openly with political organizations to--in advance of an upcoming election. So while these relative economic and political changes certainly have taken place, it is tempting, after so many years of brutally repressive military rule, to use the negative standards of the bad old days to judge the current situation.    But doing this would communicate to the Burmese that they don't deserve the same kind of genuine democracy, real economic opportunity, or real human rights that we take for granted. Instead, we must measure Burma's progress both against the democratic aspirations of the Burmese people, flagrantly denied since 1990, and against the objective standards of genuine democratic governance.    Unfortunately, the same countries, including the United States, that spent more than two decades supporting those democratic aspirations and standards seem to have decided that the reforms to date are good enough, despite how far they fall short of what we would accept for ourselves.    Let's be clear, they have fallen short. Just 1 month prior to the outbreak of violence in Rakhine State in May 2012, the Burmese nation and the world celebrated the sweeping victory of Aung San Suu Kyi and the NLD in by-elections.    In the wake of this historic event, the United States lifted its sanctions on Burma. And President Obama made the first trip to Burma by a sitting President of the United States. Yet since that trip, reforms have stopped cold. The situation has steadily worsened for civil society, political activists, and those who refuse to accept the government's terms for their transition to discipline flourishing democracy. This is the big concern, I think, that many of us have. What is this transition going towards? It is not really the government's intention to have a transition to genuine democracy. They want to transition to an electoral authoritarian system with a thin veneer of democracy on top of it.    As we look to the elections planned for this fall, there is no prospect that they can be genuinely free and fair. Because the constitutional and bureaucratic framework under which they are being held is so heavily tilted toward the military and the incumbent regime, even if the NDL ``wins,'' as Assistant Secretary Malinowski laid out, and captures a majority of the votes, they will not be able to form a government and take political control of the country and the government. Their political leader cannot be elected President. Regardless of the election results, the military will remain in control of Burma's political, bureaucratic, and economic powers. This is why the country's democratic forces have been so focused on reform of the 2008 constitution. But there has been no movement on that. And that is totally at the discretion of the military and the government.    When Burma began liberalizing in 2010, many thoughtful Burmese democrats expressed concerns about becoming ``another Cambodia,'' a donor or China-dependent, electoral authoritarian backwater. Today, these same people are equally concerned about not emulating Thailand, the country next door that has the superficial trappings of economic development and democracy, but which is actually controlled by an elite with shallow commitments to liberal values. Among Burmese Democrats, the seemingly cyclical military interventions in Thailand's democracy point out the dangers of contemplating a long-term similar role for the Burmese military. When it announced the pivot to Asia, the Obama administration declared its intent to strengthen U.S. Ties with all the governments of the region.    The 2010 reforms in Burma created new opportunities to fulfill that rhetoric. Unfortunately, the Obama administration has de-emphasized democratic values in its policy approach in the misguided belief that this will facilitate improved relations. They have replaced a policy of principled disassociation with Burma with one of unprincipled engagement. This pragmatism in the service of a transactional relationship may seem rational in the short term. But the situation in Thailand show that, ultimately, there is no shortcut. Thank you.</t>
   </si>
   <si>
@@ -298,9 +271,6 @@
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Mr. Manikas and Dr. Richardson, I am going to have a very truncated time frame. We just got buzzed for votes.    Is there a way that you could maybe abbreviate your comments? Because I just have one question that I would really like to get out there. Would that be all right?</t>
   </si>
   <si>
-    <t>Manikas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Manikas. Sure.</t>
   </si>
   <si>
@@ -317,9 +287,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Dr. Richardson.</t>
-  </si>
-  <si>
-    <t>Richardson</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Richardson. Sure. I will take Peter's 2 minutes. I am going to be really quick here.    Chairman Salmon, I think it is manifestly the case that the arc of history is not bending toward justice in mainland China. And I think the jury is really out on the direction that Hong Kong is taking.    The core issue here is not complex: The right to vote and the right to run are equally important. And you don't get to claim democratic reform by giving one while undercutting the other.    We can have a much longer discussion about this. But since I was asked to comment specifically on how the U.S. is doing, I think it is fair to say that while the U.S. has diagnosed the correct problems, I think it has been deeply reticent about being very forceful about those. If you compared, for example, the forcefulness and the frequency of American rhetoric, democracy in Hong Kong to democracy to other parts of the world, you would see a pretty significant gap.    And I think that if the U.S. is willing to say, as the previous panel did, that chief executives in Hong Kong lack legitimacy because they haven't been popularly elected, I really look forward to people making that point about Xi Jinping. I think there are many steps that the U.S. could take: Speaking of more frequently; being seen to be meeting with a full diversity of actors in Hong Kong; I think having codels visits helps enormously.    And I certainly hope that you will take from this hearing your concerns and formulate them to the administration in advance of the S&amp;ED and Xi Jinping visit. Thanks.</t>
@@ -742,11 +709,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -766,13 +731,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -794,11 +757,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -818,13 +779,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -846,11 +805,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -870,13 +827,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -898,11 +853,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -922,13 +875,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -950,11 +901,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -974,13 +923,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1002,11 +949,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1028,11 +973,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1052,13 +995,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1080,11 +1021,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1104,13 +1043,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1130,13 +1067,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1156,13 +1091,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1182,13 +1115,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1208,13 +1139,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1234,13 +1163,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1260,13 +1187,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1286,13 +1211,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1312,13 +1235,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1338,13 +1259,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1364,13 +1283,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1392,11 +1309,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1416,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1442,13 +1355,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1468,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1494,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1520,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
         <v>45</v>
-      </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1546,13 +1451,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1572,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1600,11 +1501,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1624,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1650,13 +1547,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1676,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1702,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1728,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1754,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1780,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
         <v>56</v>
-      </c>
-      <c r="H42" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1806,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1832,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1858,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1884,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1912,11 +1789,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1936,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1964,11 +1837,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1988,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2014,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2040,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2066,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2092,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2118,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2144,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2170,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2196,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2222,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2248,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2274,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2300,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2328,11 +2173,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2354,11 +2197,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2378,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>86</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2406,11 +2245,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2430,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>89</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2458,11 +2293,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2482,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>86</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2510,11 +2341,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2534,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>94</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2562,11 +2389,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2586,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>94</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2614,11 +2437,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2638,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>94</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2666,11 +2485,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2690,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>101</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2718,11 +2533,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2742,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>101</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2770,11 +2581,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2794,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>89</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2822,11 +2629,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2846,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>89</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2874,11 +2677,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94942.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94942.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Salmon. The subcommittee will come to order. Given the timing of votes this afternoon, we are expected to go back in for votes again pretty soon, I am going to keep my remarks very short and submit my entire statement for the record.    Supporting human rights and democracy has long been a central component of U.S. foreign policy. Promotion of democratic values facilitates security, stability, and economic prosperity throughout Asia and the world. This year the Asia-Pacific region is entering a critical period for democracy with a number of elections, government transitions, and internal developments planned in numerous countries.    As the United States continually refines its efforts to ensure peaceful, transparent transitions of power and adherence to international law and norms, we must also ensure that our efforts are practical and leave meaningful results among Asian democracies, that our efforts leave them very robust. Our hearing will provide oversight on our Government's activities to support democracy abroad and ensure that while our focus is on military and economic rebalance, that we are not going to overlook the importance of democracy and human rights.    Today we are going to pay special attention to Hong Kong, Burma, Thailand, and Cambodia, and the rest of my remarks I am just going to submit for the record. We have got such a short amount of time, I really want to hear from the witnesses.    Mr. Sherman, I am going to yield to you.</t>
   </si>
   <si>
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you. Thank you for holding these hearings.    For the most part, our Government programs aren't designed to focus on democracy in China, but the thing that I think will be even more important to bringing democracy to China is if we are able to expose to the Chinese people the incredible levels of corruption in their own regime. We have the capacity to ferret out proof of their top government officials and mid-level government officials with enormous assets both in and out of China. And I don't think there is much that would do more to bring democracy to China than exposing this level of corruption.    We are in a stronger position to push for democracy in other countries. In Burma, we face two issues: One, getting the military or military-flavored regime to agree to democracy; and, second, trying to get both the democracy advocates that we have sheltered and supported for so long, and the military regime to understand the importance of minority rights. I am especially disappointed that Aung Suu Kyi and others who we have supported so fervently have not spoken out and acted to protect the rights and the physical existence of the Rohingya.    In Thailand, we need to support democracy even if there are, I don't know, more yellow shirts than red shirts or more red shirts than yellow shirts and even if the more numerous shirts may represent a policy that we regard as a little too redistributionist or adopting economic policies inconsistent with majority economic thought here in the United States.    I look forward to learning what we can do to bring both development and democracy to Cambodia. And as to Hong Kong, the Chinese Government is obviously doing less than promised, and we need to expose and pressure that. At the same time, the people of Hong Kong do enjoy something closer to democracy than the rest of the PRC. And I think that the example of Hong Kong is one that the rest of China may choose to emulate.    I, like the chairman, want to keep my opening remarks short, and this is the first time I have concluded them in only 3 minutes.    I yield back.</t>
   </si>
   <si>
@@ -67,18 +82,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Malinowski</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Malinowski. Thank you so much Chairman Salmon. Very good to see you again.    And, Mr. Sherman, who is also a member of the DRL human rights family, thank you so much for inviting us.    Let me start with some general impressions. Promoting human rights and democracy in Asia is something we do because it is the right thing to do. It also advances our strategic interests. It helps to build more stable societies. It advances our economic goals in a number of ways.    Perhaps most important from my point of view it aligns the United States with the aspirations of everyday people across this region with--it aligns us with the values that they admire. We sometimes get into arguments with governments on these issues, but we are fundamentally in agreement with the people of China, with the people of Vietnam, with the people of Burma about the basic human aspiration to be treated with dignity and fairness and with full respect for rights. And that agreement is a strategic advantage for the United States we need to preserve.    By the same token, the flip side of that is that our strategic presence in Asia, our alliances, our trade agreements, our ability to provide security and reassurance also enables us to promote democracy and human rights more effectively. To advance our values we need to be the great power that is shaping the agenda, and that our allies look to as their most reliable partner because there are alternative visions out there. There are alternative agenda setters out there. So, to be effective, we have to be present and principled at the same time.    With that in mind, you have asked us to address a few specific situations. I am going to say a few words about Burma. I am going to throw in a little bit about Vietnam where you and I met recently, and my colleague, Deputy Assistant Secretary Marciel, will cover some of the other countries that you asked us to focus on.    So, first, Burma, which is, it is first of all a country that has come a long way from the absolute military dictatorship that it was just a few years ago but is not yet where we need it and want it to be. It is undergoing an evolution, not a revolution. Everything is being negotiated. It is still operating under the old military constitution. There is still armed conflict, religious tension, the tragic situation of the Rohingya minority.    Our policy has been to support a democratic transition but with realism about how far Burma has to go and caution about not moving too fast ourselves. So we have eased sanctions. We haven't fully lifted them. We have encouraged U.S. investment but not with military industries. We have welcomed the progress we have seen, but we have also continued to speak out about the problems.    This is a very important year. There will be elections in Burma later this year, the first nationwide competitive elections there in a very long time. Those elections will have inherent flaws because of the system in place. They do, if they reflect credibly the will of Burmese people, they do offer a chance to take a step forward.    If the democratic forces do well, for example, they will form the next government. They will select the next President. They will have the leverage to press for the next stage of reform. So we are going to support the elections as best as we can. But we will be looking not just at the credibility of that process but at the credibility of the democratic transition that we hope will follow, including, we hope, changes to the constitution that empower civilians over the military and that give Burmese people the right to choose the President they want.    And we are also going to continue to press to right the wrongs being committed against the Rohingya minority, which President Obama, when he was in Rangoon recently, called Burma's most urgent matter.    Now, let me say also just a few words about Vietnam, and I want to talk about this in the context of the choice that Members are going to have to make very shortly on TPA and eventually on TPP because that choice is going to have a huge impact on what we are going to do going forward.    And I recognize that it is not an easy choice for many Members, especially those who are concerned about human rights and labor rights in Vietnam.    We see exactly what you see in that country. It is still a one-party state. It is still a country in which people are persecuted for political opinions. And it is, again, a country that is not where we yet want it or need it to be.    But going back to the point I made at the outset, we have to be present, and we have to be principled. I think the TPP meets both of those tests. First of all, it is an example of strategic presence of the United States trying to play the leading role in shaping the norms and institutions of Asia for a generation to come. If we cede that role to others, that is not going to be good for the cause of human rights and democracy.    Second of all, it is principled because built into TPP are a set of requirements and expectations unlike in past trade agreements. Those requirements and expectations feed into a debate that is underway in Vietnam already between those who want to open up the society and those who want to keep it closed. And those who want to keep it to make it more open are using the prospect of membership in TPP as their number one argument for moving forward. And under the spotlight of that debate, there has been progress, more releases, vastly fewer convictions for political offenses, ratification of human rights treaties and the beginning of comprehensive legal reform. And most important, a requirement built into the treaty that Vietnam allow for the very first time freedom of association, the creation of independent trade unions, breaking the Communist Party's monopoly on trade union organizing, which would be a huge deal if we can get it. And those changes will have to be made in Vietnamese law before they can enjoy the benefits of TPP.    So is this enough? No, it is not, but it will be significant. It will be necessary in terms of what we are trying to achieve. And, without the prospect of TPP, it would not be happening. And TPA, which is what you all are being asked to vote for in coming days, is what keeps that prospect open and thus gives us the leverage to keep pressing for more.    I have focused on this as much as any other human rights issue in the world. And I can tell you that this is the entree. This is the reason why the Vietnamese Government is willing to listen to us on these issues. So I ask you to consider this, not as a leap of faith, but as an exercise in leverage in trying to achieve the kind of progress that we have been hoping for in Vietnam for a long time, but only now I think have a chance to achieve.    With that, I will turn the rest over to my colleague, Mr. Marciel.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Mr. Marciel.</t>
   </si>
   <si>
+    <t>Marciel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Marciel. Thank you, Chairman Salmon, Ranking Member Sherman, and members of the committee. It is a privilege to testify before you today. Promoting democracy and human rights is not something we do on the margins. It is an integral part of our daily diplomacy in Asia, particularly, of course, in countries that either are not democracies, or where democracy is fragile. My generation joining the Foreign Service and heading to Asia three decades ago, went to a region where democracy were few and, in the case of Southeast Asia, were nonexistent. Now, a majority of Southeast Asians live in democracies in places like the Philippines, Indonesia and Timor-Leste. South Korea, Taiwan, and Mongolia have democratized as well, and others have made progress along the democratic path.    In all of these places, the people of those nations deserve the credit. They are the ones who made democracy happen. But the United States strongly supported all of these democratic transitions, and we are not stopping. I will talk about what we are doing in three very different places, Cambodia, Thailand, and Hong Kong.    But, first, if I could, I would add a few words to Assistant Secretary Malinowski's review of Burma. And I just want to stress there that our engagement in Burma and with Burma is all about their efforts to achieve a successful democratic transition. That has been and remains the focus of our work at all levels.    On Cambodia, after the 2013 parliamentary election, we, and particularly our Embassy in Phnom Penh, were instrumental in helping bring the government and opposition together in direct dialogue to resolve a year-long standoff. There is still much work to do, but now the two sides sit in Parliament together. And we are supporting the Cambodian people as they work to build on these gains. We are supporting civil society. We are connecting directly with Cambodia's next generation of leaders. And we stand with the Cambodians who are pushing for a voice as new laws are drafted. This sends a reminder that democracy isn't only about free elections. It is also about citizens' ability to hold their governments accountable.    Next, Thailand, a long-time friend and treaty ally. We have stood for democracy there through a decade of political turmoil, and our message to the government since the coup just over a year ago has been clear. We are eager to see our bilateral relationship restored to its fullest potential, but this can happen only when democracy is restored.    Until then, we will hold back certain assistance that has been suspended since the coup. But we will continue, however, to operate closely with the Thai on regional and global issues, that serve U.S. interests such as health, law enforcement, trafficking, climate change, regional security. In our interactions with the Thai, we continually stress that it is important for Thailand to have an inclusive political process and to fully restore civil liberties. This is essential to the open debate the country needs to have about its political future.    My third example is Hong Kong, where we have consistently voiced our core belief that an open society that respects the rights of its citizens and fundamental freedoms is essential to Hong Kong's continued stability and prosperity. We expect the legislative council to vote this month on an electoral reform package. While Hong Kong has never selected a chief executive through universal suffrage, we continue to voice our longstanding position that the legitimacy of the chief executive and of Hong Kong's overall governance can be enhanced through a competitive election that features a meaningful choice of candidates who represent the will of the voters.    Our position is a matter of principle, so we don't take a position on any particular draft law. We leave that question to Hong Kong's legislators in consultation with the people of Hong Kong. Irrespective of the outcome of any single legislative vote, we will keep supporting Hong Kong's continued high degree of autonomy, under ``one country, two systems'' and the basic law.    We admire all that so many people in Asia have done to promote democracy and good governance. Their work is never complete, but in our everyday diplomacy, we will continue to do all we can as a friend and as a reliable partner to support efforts to build and strengthen democracy.    Finally, let me emphasize that trade and investment, especially TPP, are important, are key to supporting a U.S. economy and to our efforts to promote democracy in the region. Thank you and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you. Mr. Stivers.</t>
   </si>
   <si>
+    <t>Stivers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Stivers. Chairman Salmon, Ranking Member Sherman, distinguished members of the subcommittee, and Mr. Crowley, thank you for the opportunity to testify today on the role of USAID in strengthening democracy, human rights, and governance in Asia. The vital importance of these areas has always been close to my heart and the forefront of my nearly two decades of work as a staffer in the House of Representatives.    The House Foreign Affairs Committee has long been at the forefront on democracy and human rights issues, and some of the strongest voices on human rights in U.S. history have done their best work on this panel.    Mr. Chairman, this hearing is in furtherance of that tradition, so thank you for your leadership in holding this hearing.    Dr. Martin Luther King once said that ``The arc of the moral universe is long, but it bends toward justice.'' This is certainly true in Southeast Asia which has made significant progress over the last 30 years. There is a unique situation in each country of the region to either preserve, consolidate, or build democratic institutions.    The United States stands as a partner in helping the people in Asia live in freedom and prosperity, including in countries with significant democratic challenges such as Burma and Cambodia.    In the fight to alleviate extreme poverty, it is essential to effectively address the underlying structural problems with governance that hold back many developing countries from realizing their potential. The solutions to challenges will ultimately come from the people of the region themselves, and our best chance in promoting democratic change is to empower the reformers in these countries by helping them build resilient institutions that are transparent and accountable to the people.    The promotion of democracy, human rights, and good governance is front and center in our development assistance to the region. And efforts not necessarily branded as democracy promotion, help advance that goal as we build systems and capacity to address overwhelming development challenges, including support for health and food-security sectors.    Our development assistance engages directly with the people and helps give them a voice in determining their own livelihoods and future. For the purposes of this hearing, I will focus my remarks on the countries of Burma and Cambodia.    In Burma, this is a pivotal year. Closely calibrated with our diplomatic efforts, our assistance is intended to strengthen institutions of democracy. USAID is helping to prepare for the November elections by building the capacity of the election commission; training domestic election observers; supporting voter registration and education; and strengthening the capacity of political parties.    USAID continues to provide humanitarian assistance to vulnerable communities, including significant assistance for the Rohingya population, refugees, and displaced people along the Thailand-Burma border and other conflict areas of Burma. Over the past 2 years the U.S. Government has provided more than $109 million in humanitarian assistance to vulnerable people in Burma and the region. And we continue to provide lifesaving humanitarian assistance to internally displaced persons, refugees, asylum seekers in the areas of health, nutrition, water, sanitization, and hygiene.    An emphasis on civil society is prevalent through all of our work, from media freedoms to land policy to health and agriculture. And we are supporting organizations that are holding the government accountable to continued reform; advocating for local needs and priorities; and resisting discrimination and violence.    To date, USAID has supported over 300 vocal civil society organizations who are empowering ordinary citizens to bring change to their country.    In Cambodia, promoting democratic governance and human rights continues to be our highest priority. U.S. assistance to human rights NGOs have strengthened their skills necessary to advocate effectively for change. While not fully respected by the Cambodian Government, Cambodian civil society has grown in strength and inclusiveness. Since the 1990s, we have supported civil society, and we continue to prioritize assistance to this sector. Cambodian civil society, with USAID support, has pressed for action on key issues, such as support for human rights, by providing legal representation, trial monitoring, and advocacy support to over 1,000 jailed activists.    Our longstanding support for anti-trafficking is paying dividends with a new report finding significant decreases in trafficking of underaged girls. The reduction was achieved in large part by civil societies' sustained efforts.    In part, due to U.S. support, garment workers negotiated a 28-percent increase in minimum wage that was approved last year.    Community mobilization and legal support resulted in the government returning land to more than 700 families in Siem Reap Province, providing them with land tenure security and improved livelihood options. And advocacy resulted in a pardon and release of 10 female land activists recently who had been imprisoned for protesting their community from being evicted due to real estate development projects.    In conclusion, Mr. Chairman, democracy, human rights, and good governance are not only central to the Asia rebalance policy but to our development approach in Asia. I appreciate the opportunity to testify today. I look forward to hearing your thoughts and any questions.    [The prepared joint statement of Mr. Malinowski, Mr. Marciel, and Mr. Stivers follows:]                              ----------                              </t>
   </si>
   <si>
@@ -139,6 +163,12 @@
     <t>412560</t>
   </si>
   <si>
+    <t>Meng</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Meng. Thank you, Mr. Chairman, Mr. Ranking Member.    Welcome to all of our witnesses who are testifying here today.    Assistant Administrator Stivers, thank you once again. I am losing track of how many times you have come to testify before us.</t>
   </si>
   <si>
@@ -166,6 +196,12 @@
     <t>412521</t>
   </si>
   <si>
+    <t>Lowenthal</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lowenthal. Thank you.    Thank you, Mr. Chair, and Mr. Malinowski, I want to thank you personally for your tireless work on human rights, especially in Vietnam. I generally appreciate the open dialogue that we have had, and the work that you have done, and I went along with the chair, visiting Vietnam, and getting a chance to see you.    I want to talk about something that you mentioned in your testimony here that I think has--and, you know, the thing that we will be actually looking at and voting on very soon. And that is the--although you talk about the TPP, right now, we, as you know, we will be voting on the TPA, the promotion authority. But you say in your submitted testimony that the TPP agreement will include a requirement that Vietnam guarantee freedom of association by allowing workers to form genuinely independent trade unions.    Can you expand to us on what that cause really will look like, and how are we going to be able, the United States and others, to hold Vietnam accountable? And has there been--has Vietnam taken any steps today, before the TPP goes into effect, to actually develop independent trade, or is this something that they are saying they will do in the future?</t>
   </si>
   <si>
@@ -253,12 +289,18 @@
     <t xml:space="preserve">    Mr. Salmon. I thank the panel for coming today.    We are very fortunate to be joined by Kelley Currie, a senior fellow with the Project 2049 Institute, where she has worked on democracy, human rights, and rule of law in the Asia Pacific for over 6 years.    Murray Hiebert--did I pronounce that right, Murray?</t>
   </si>
   <si>
+    <t>Hiebert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hiebert. Yes.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. He is a senior fellow and deputy director of the Sumitro Chair for Southeast Asian Studies, Center for Strategic and International Studies.    Peter Manikas has served as senior associate and director of Asia programs at the National Democratic Institute for the past 20 years.    And Dr. Sophie Richardson is Human Rights Watch's China director.    And Ms. Currie, we will start with you. Let me just explain the situation. We are going to probably have votes in about 10 to 15 minutes. I am going to try to get through all of your testimony. We probably won't get to questions today, which disappoints me, but maybe if we could have members submit questions to you in writing, that would be very, very helpful.    And Ms. Currie.</t>
   </si>
   <si>
+    <t>Currie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Currie. Thank you, Mr. Chairman, Mr. Ranking Member, and members of the committee for giving me the opportunity today to speak about the state of democracy in Asia, specifically with regard to the situation in Burma.    There is no denying there have been changes in Burma over the past 5 years. When I started working on human rights and democracy in Burma 20 years ago as a young congressional staffer working on the Congressional Human Rights Caucus, I could not have imagined that I would be sitting here today, having spent time in Burma and meeting with the people I was trying to get out of jail at that time, people like Min Ko Naing and Aung San Suu Kyi and others.    Likewise, when I was running the International Republican Institute's Burma program with shoestring funding, operating out of safe houses on the Thai-Burma border, I can't imagine--I couldn't have imagined that IRI and NDI and other organizations would be operating from offices in downtown Rangoon today with the permission of the government and working openly with political organizations to--in advance of an upcoming election. So while these relative economic and political changes certainly have taken place, it is tempting, after so many years of brutally repressive military rule, to use the negative standards of the bad old days to judge the current situation.    But doing this would communicate to the Burmese that they don't deserve the same kind of genuine democracy, real economic opportunity, or real human rights that we take for granted. Instead, we must measure Burma's progress both against the democratic aspirations of the Burmese people, flagrantly denied since 1990, and against the objective standards of genuine democratic governance.    Unfortunately, the same countries, including the United States, that spent more than two decades supporting those democratic aspirations and standards seem to have decided that the reforms to date are good enough, despite how far they fall short of what we would accept for ourselves.    Let's be clear, they have fallen short. Just 1 month prior to the outbreak of violence in Rakhine State in May 2012, the Burmese nation and the world celebrated the sweeping victory of Aung San Suu Kyi and the NLD in by-elections.    In the wake of this historic event, the United States lifted its sanctions on Burma. And President Obama made the first trip to Burma by a sitting President of the United States. Yet since that trip, reforms have stopped cold. The situation has steadily worsened for civil society, political activists, and those who refuse to accept the government's terms for their transition to discipline flourishing democracy. This is the big concern, I think, that many of us have. What is this transition going towards? It is not really the government's intention to have a transition to genuine democracy. They want to transition to an electoral authoritarian system with a thin veneer of democracy on top of it.    As we look to the elections planned for this fall, there is no prospect that they can be genuinely free and fair. Because the constitutional and bureaucratic framework under which they are being held is so heavily tilted toward the military and the incumbent regime, even if the NDL ``wins,'' as Assistant Secretary Malinowski laid out, and captures a majority of the votes, they will not be able to form a government and take political control of the country and the government. Their political leader cannot be elected President. Regardless of the election results, the military will remain in control of Burma's political, bureaucratic, and economic powers. This is why the country's democratic forces have been so focused on reform of the 2008 constitution. But there has been no movement on that. And that is totally at the discretion of the military and the government.    When Burma began liberalizing in 2010, many thoughtful Burmese democrats expressed concerns about becoming ``another Cambodia,'' a donor or China-dependent, electoral authoritarian backwater. Today, these same people are equally concerned about not emulating Thailand, the country next door that has the superficial trappings of economic development and democracy, but which is actually controlled by an elite with shallow commitments to liberal values. Among Burmese Democrats, the seemingly cyclical military interventions in Thailand's democracy point out the dangers of contemplating a long-term similar role for the Burmese military. When it announced the pivot to Asia, the Obama administration declared its intent to strengthen U.S. Ties with all the governments of the region.    The 2010 reforms in Burma created new opportunities to fulfill that rhetoric. Unfortunately, the Obama administration has de-emphasized democratic values in its policy approach in the misguided belief that this will facilitate improved relations. They have replaced a policy of principled disassociation with Burma with one of unprincipled engagement. This pragmatism in the service of a transactional relationship may seem rational in the short term. But the situation in Thailand show that, ultimately, there is no shortcut. Thank you.</t>
   </si>
   <si>
@@ -271,6 +313,9 @@
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Mr. Manikas and Dr. Richardson, I am going to have a very truncated time frame. We just got buzzed for votes.    Is there a way that you could maybe abbreviate your comments? Because I just have one question that I would really like to get out there. Would that be all right?</t>
   </si>
   <si>
+    <t>Manikas</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Manikas. Sure.</t>
   </si>
   <si>
@@ -287,6 +332,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Dr. Richardson.</t>
+  </si>
+  <si>
+    <t>Richardson</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Richardson. Sure. I will take Peter's 2 minutes. I am going to be really quick here.    Chairman Salmon, I think it is manifestly the case that the arc of history is not bending toward justice in mainland China. And I think the jury is really out on the direction that Hong Kong is taking.    The core issue here is not complex: The right to vote and the right to run are equally important. And you don't get to claim democratic reform by giving one while undercutting the other.    We can have a much longer discussion about this. But since I was asked to comment specifically on how the U.S. is doing, I think it is fair to say that while the U.S. has diagnosed the correct problems, I think it has been deeply reticent about being very forceful about those. If you compared, for example, the forcefulness and the frequency of American rhetoric, democracy in Hong Kong to democracy to other parts of the world, you would see a pretty significant gap.    And I think that if the U.S. is willing to say, as the previous panel did, that chief executives in Hong Kong lack legitimacy because they haven't been popularly elected, I really look forward to people making that point about Xi Jinping. I think there are many steps that the U.S. could take: Speaking of more frequently; being seen to be meeting with a full diversity of actors in Hong Kong; I think having codels visits helps enormously.    And I certainly hope that you will take from this hearing your concerns and formulate them to the administration in advance of the S&amp;ED and Xi Jinping visit. Thanks.</t>
@@ -659,7 +707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +715,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,1997 +737,2345 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G28" t="s">
+        <v>49</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G30" t="s">
+        <v>49</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
+        <v>49</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G34" t="s">
+        <v>49</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G36" t="s">
+        <v>60</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G40" t="s">
+        <v>60</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G42" t="s">
+        <v>60</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G44" t="s">
+        <v>60</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G46" t="s">
+        <v>60</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
       <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>91</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>94</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>91</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>99</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>99</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
       <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>99</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>106</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>106</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>94</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>94</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>98</v>
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94942.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94942.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Salmon</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Sherman</t>
   </si>
   <si>
@@ -161,6 +170,9 @@
   </si>
   <si>
     <t>412560</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Meng</t>
@@ -707,7 +719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,7 +727,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,2342 +752,2524 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>28</v>
       </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
         <v>21</v>
       </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G36" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G38" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G40" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G42" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G46" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>22</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>91</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>95</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>94</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>98</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>91</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>95</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>99</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>103</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>99</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>103</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>99</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>103</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>106</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>110</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>106</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>110</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>94</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>98</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>94</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>98</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>114</v>
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
